--- a/020-内部設計/023-検索機能/Main/クラス仕様書_MainService.xlsx
+++ b/020-内部設計/023-検索機能/Main/クラス仕様書_MainService.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA13B2-B073-4D8B-92E2-8C070248E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64968FE1-EF9F-4D5B-A662-EE52CFB252F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -235,13 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カテゴリーをセッションオブジェクトに登録するメソッドです。</t>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MainService</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,13 +270,6 @@
     <t>public static</t>
   </si>
   <si>
-    <t>カテゴリーをセッションに登録。</t>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラス読み込みエラー</t>
   </si>
   <si>
@@ -308,64 +294,7 @@
     <t>データベースアクセス・SQL実行でエラーが発生した場合</t>
   </si>
   <si>
-    <t>リクエスト</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>HttpServletRequest</t>
-  </si>
-  <si>
-    <t>リクエスト情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>execute</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>画面遷移先</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイサキ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>nextPage</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>次に遷移する画面</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>2.　エラーメッセージ格納用の変数を作成。</t>
-    <rPh sb="11" eb="14">
-      <t>カクノウヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -379,38 +308,6 @@
     <t>例外処理</t>
     <rPh sb="0" eb="4">
       <t>レイガイショリ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-1.　処理欄の項番2の変数に「部署の検索に失敗しました。」と代入。</t>
-    <rPh sb="5" eb="8">
-      <t>ショリラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-2.　コンソール出力。</t>
-    <rPh sb="10" eb="12">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -431,13 +328,6 @@
   </si>
   <si>
     <t>com.bh.ecsite.dao</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>カテゴリーDAOの全件検索</t>
-    <rPh sb="9" eb="13">
-      <t>ゼンケンケンサク</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -531,32 +421,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>1-3.　遷移先をエラー画面に変更。</t>
-    <rPh sb="5" eb="8">
-      <t>センイサキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>遷移先情報を確定する。</t>
-    <rPh sb="0" eb="3">
-      <t>センイサキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,36 +490,6 @@
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.　</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>4.　カテゴリ情報を作成。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>商品の色情報を作成</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>コンストラクタ（カテゴリ情報）</t>
@@ -729,22 +563,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>6.　カテゴリ情報を転送データ（保持される）として登録。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>項番5で使用</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
@@ -765,7 +583,210 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>1.　処理欄の項番3,4,5でクラス参照エラー,SQLエラーが発生した場合、</t>
+    <t>項番6,7,8で使用</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4.　カテゴリDAOの全件検索を呼び出す。</t>
+    <rPh sb="11" eb="15">
+      <t>ゼンケンケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5.　項番4の戻り値をもとにカテゴリ情報を作成。</t>
+    <rPh sb="3" eb="5">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カテゴリDAOの全件検索</t>
+    <rPh sb="8" eb="12">
+      <t>ゼンケンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>6.　商品の色DAOの全件検索を呼び出す。</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ゼンケンケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>7.　項番6の戻り値をもとに商品の色情報を作成</t>
+    <rPh sb="3" eb="5">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検索項目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>itemDTO</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ItemDTO</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カテゴリと商品の色情報の取得。</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリと商品の色情報の取得。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面情報</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ情報と商品の色情報。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カテゴリと商品の色情報の取得。</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-1.　クラス参照エラー,SQLエラーを呼び出し元に投げる。</t>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>8.　項番5.6を項番２で用意した変数に格納。</t>
+    <rPh sb="3" eb="5">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>9.　項番2で作成した変数を返却。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1.　処理欄の項番4.5.6.7クラス参照エラー,SQLエラーが発生した場合、</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
     </rPh>
@@ -775,67 +796,35 @@
     <rPh sb="7" eb="9">
       <t>コウバン</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="19" eb="21">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="32" eb="34">
       <t>ハッセイ</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="36" eb="38">
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>7.　商品の色情報を転送データ（保持される）として登録。</t>
-    <rPh sb="3" eb="5">
-      <t>ショウヒン</t>
+    <t>2.　検索項目情報を格納するリストを用意。</t>
+    <rPh sb="3" eb="7">
+      <t>ケンサクコウモク</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>イロ</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>8.　項番2の変数を転送データ（１度限り）として登録。</t>
-    <rPh sb="3" eb="5">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>9.　項番1で作成した変数を返却。</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>項番6,7,8で使用</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
+    <t>-</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1970,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17:AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2019,7 +2008,7 @@
       <c r="AC1" s="95"/>
       <c r="AD1" s="95"/>
       <c r="AE1" s="94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="94"/>
       <c r="AG1" s="94"/>
@@ -2540,7 +2529,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="91" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="H4" s="92"/>
       <c r="I4" s="92"/>
@@ -2607,7 +2596,7 @@
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
       <c r="G5" s="91" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
@@ -2674,7 +2663,7 @@
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
       <c r="G6" s="91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
@@ -2741,7 +2730,7 @@
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
@@ -2808,7 +2797,7 @@
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="92"/>
       <c r="I8" s="92"/>
@@ -3032,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="101"/>
@@ -3042,7 +3031,7 @@
       <c r="I13" s="101"/>
       <c r="J13" s="102"/>
       <c r="K13" s="101" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
@@ -3052,7 +3041,7 @@
       <c r="Q13" s="101"/>
       <c r="R13" s="102"/>
       <c r="S13" s="101" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="T13" s="101"/>
       <c r="U13" s="101"/>
@@ -3062,7 +3051,7 @@
       <c r="Y13" s="101"/>
       <c r="Z13" s="102"/>
       <c r="AA13" s="106" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AB13" s="106"/>
       <c r="AC13" s="106"/>
@@ -3072,7 +3061,7 @@
       <c r="AG13" s="106"/>
       <c r="AH13" s="106"/>
       <c r="AI13" s="106" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AJ13" s="106"/>
       <c r="AK13" s="106"/>
@@ -3092,7 +3081,7 @@
       <c r="AY13" s="106"/>
       <c r="AZ13" s="106"/>
       <c r="BA13" s="104" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="BB13" s="81"/>
       <c r="BC13" s="81"/>
@@ -3112,7 +3101,7 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3197,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D17" s="101"/>
       <c r="E17" s="101"/>
@@ -3207,7 +3196,7 @@
       <c r="I17" s="101"/>
       <c r="J17" s="102"/>
       <c r="K17" s="101" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L17" s="101"/>
       <c r="M17" s="101"/>
@@ -3217,7 +3206,7 @@
       <c r="Q17" s="101"/>
       <c r="R17" s="102"/>
       <c r="S17" s="101" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="T17" s="101"/>
       <c r="U17" s="101"/>
@@ -3227,7 +3216,7 @@
       <c r="Y17" s="101"/>
       <c r="Z17" s="102"/>
       <c r="AA17" s="110" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AB17" s="110"/>
       <c r="AC17" s="110"/>
@@ -3237,7 +3226,7 @@
       <c r="AE17" s="110"/>
       <c r="AF17" s="110"/>
       <c r="AG17" s="108" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="AH17" s="108"/>
       <c r="AI17" s="108"/>
@@ -3259,7 +3248,7 @@
       <c r="AY17" s="108"/>
       <c r="AZ17" s="104"/>
       <c r="BA17" s="81" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="BB17" s="81"/>
       <c r="BC17" s="81"/>
@@ -3356,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="101"/>
@@ -3366,7 +3355,7 @@
       <c r="I21" s="101"/>
       <c r="J21" s="102"/>
       <c r="K21" s="101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="101"/>
       <c r="M21" s="101"/>
@@ -3376,7 +3365,7 @@
       <c r="Q21" s="101"/>
       <c r="R21" s="102"/>
       <c r="S21" s="101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T21" s="101"/>
       <c r="U21" s="101"/>
@@ -3396,7 +3385,7 @@
       <c r="AE21" s="110"/>
       <c r="AF21" s="110"/>
       <c r="AG21" s="108" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="AH21" s="108"/>
       <c r="AI21" s="108"/>
@@ -3418,7 +3407,7 @@
       <c r="AY21" s="108"/>
       <c r="AZ21" s="104"/>
       <c r="BA21" s="81" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="BB21" s="81"/>
       <c r="BC21" s="81"/>
@@ -3970,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -3980,7 +3969,7 @@
       <c r="I25" s="84"/>
       <c r="J25" s="85"/>
       <c r="K25" s="83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
@@ -3990,7 +3979,7 @@
       <c r="Q25" s="84"/>
       <c r="R25" s="85"/>
       <c r="S25" s="86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T25" s="86"/>
       <c r="U25" s="86"/>
@@ -4000,7 +3989,7 @@
       <c r="Y25" s="86"/>
       <c r="Z25" s="86"/>
       <c r="AA25" s="87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB25" s="88"/>
       <c r="AC25" s="88"/>
@@ -4028,7 +4017,7 @@
       <c r="AY25" s="88"/>
       <c r="AZ25" s="89"/>
       <c r="BA25" s="81" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="BB25" s="81"/>
       <c r="BC25" s="81"/>
@@ -4243,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="84"/>
       <c r="E26" s="84"/>
@@ -4253,7 +4242,7 @@
       <c r="I26" s="84"/>
       <c r="J26" s="85"/>
       <c r="K26" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L26" s="84"/>
       <c r="M26" s="84"/>
@@ -4263,7 +4252,7 @@
       <c r="Q26" s="84"/>
       <c r="R26" s="85"/>
       <c r="S26" s="86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T26" s="86"/>
       <c r="U26" s="86"/>
@@ -4273,7 +4262,7 @@
       <c r="Y26" s="86"/>
       <c r="Z26" s="86"/>
       <c r="AA26" s="87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB26" s="88"/>
       <c r="AC26" s="88"/>
@@ -4301,7 +4290,7 @@
       <c r="AY26" s="88"/>
       <c r="AZ26" s="89"/>
       <c r="BA26" s="81" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="BB26" s="81"/>
       <c r="BC26" s="81"/>
@@ -4618,8 +4607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BD3" sqref="BD3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4689,7 +4678,7 @@
       <c r="AR1" s="95"/>
       <c r="AS1" s="95"/>
       <c r="AT1" s="94" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AU1" s="94"/>
       <c r="AV1" s="94"/>
@@ -5191,7 +5180,7 @@
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
       <c r="G4" s="115" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
@@ -5455,7 +5444,7 @@
       <c r="E5" s="116"/>
       <c r="F5" s="116"/>
       <c r="G5" s="117" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H5" s="117"/>
       <c r="I5" s="117"/>
@@ -6509,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -6519,7 +6508,7 @@
       <c r="I9" s="86"/>
       <c r="J9" s="86"/>
       <c r="K9" s="86" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -6529,7 +6518,7 @@
       <c r="Q9" s="86"/>
       <c r="R9" s="86"/>
       <c r="S9" s="86" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="T9" s="86"/>
       <c r="U9" s="86"/>
@@ -6539,7 +6528,7 @@
       <c r="Y9" s="86"/>
       <c r="Z9" s="86"/>
       <c r="AA9" s="114" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="AB9" s="114"/>
       <c r="AC9" s="114"/>
@@ -7575,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="86"/>
@@ -7585,7 +7574,7 @@
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
       <c r="K13" s="86" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="L13" s="86"/>
       <c r="M13" s="86"/>
@@ -7595,7 +7584,7 @@
       <c r="Q13" s="86"/>
       <c r="R13" s="86"/>
       <c r="S13" s="86" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="T13" s="86"/>
       <c r="U13" s="86"/>
@@ -7605,7 +7594,7 @@
       <c r="Y13" s="86"/>
       <c r="Z13" s="86"/>
       <c r="AA13" s="114" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="AB13" s="114"/>
       <c r="AC13" s="114"/>
@@ -8449,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
@@ -8459,7 +8448,7 @@
       <c r="I17" s="81"/>
       <c r="J17" s="82"/>
       <c r="K17" s="101" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L17" s="101"/>
       <c r="M17" s="101"/>
@@ -8469,7 +8458,7 @@
       <c r="Q17" s="101"/>
       <c r="R17" s="102"/>
       <c r="S17" s="101" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="T17" s="101"/>
       <c r="U17" s="101"/>
@@ -8487,7 +8476,7 @@
       </c>
       <c r="AD17" s="122"/>
       <c r="AE17" s="123" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AF17" s="108"/>
       <c r="AG17" s="108"/>
@@ -8509,7 +8498,7 @@
       <c r="AW17" s="108"/>
       <c r="AX17" s="108"/>
       <c r="AY17" s="118" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AZ17" s="118"/>
       <c r="BA17" s="118"/>
@@ -8726,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
@@ -8736,7 +8725,7 @@
       <c r="I18" s="81"/>
       <c r="J18" s="82"/>
       <c r="K18" s="101" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
@@ -8746,7 +8735,7 @@
       <c r="Q18" s="101"/>
       <c r="R18" s="102"/>
       <c r="S18" s="101" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="T18" s="101"/>
       <c r="U18" s="101"/>
@@ -8760,11 +8749,11 @@
       </c>
       <c r="AB18" s="122"/>
       <c r="AC18" s="121" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AD18" s="122"/>
       <c r="AE18" s="123" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="AF18" s="108"/>
       <c r="AG18" s="108"/>
@@ -8786,7 +8775,7 @@
       <c r="AW18" s="108"/>
       <c r="AX18" s="108"/>
       <c r="AY18" s="118" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AZ18" s="118"/>
       <c r="BA18" s="118"/>
@@ -9003,7 +8992,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
@@ -9013,7 +9002,7 @@
       <c r="I19" s="81"/>
       <c r="J19" s="82"/>
       <c r="K19" s="101" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="L19" s="101"/>
       <c r="M19" s="101"/>
@@ -9023,7 +9012,7 @@
       <c r="Q19" s="101"/>
       <c r="R19" s="102"/>
       <c r="S19" s="101" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="T19" s="101"/>
       <c r="U19" s="101"/>
@@ -9041,7 +9030,7 @@
       </c>
       <c r="AD19" s="122"/>
       <c r="AE19" s="123" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AF19" s="108"/>
       <c r="AG19" s="108"/>
@@ -9063,7 +9052,7 @@
       <c r="AW19" s="108"/>
       <c r="AX19" s="108"/>
       <c r="AY19" s="118" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AZ19" s="118"/>
       <c r="BA19" s="118"/>
@@ -9280,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
@@ -9290,7 +9279,7 @@
       <c r="I20" s="81"/>
       <c r="J20" s="82"/>
       <c r="K20" s="101" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="L20" s="101"/>
       <c r="M20" s="101"/>
@@ -9300,7 +9289,7 @@
       <c r="Q20" s="101"/>
       <c r="R20" s="102"/>
       <c r="S20" s="101" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="T20" s="101"/>
       <c r="U20" s="101"/>
@@ -9314,11 +9303,11 @@
       </c>
       <c r="AB20" s="122"/>
       <c r="AC20" s="121" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AD20" s="122"/>
       <c r="AE20" s="123" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="AF20" s="108"/>
       <c r="AG20" s="108"/>
@@ -9340,7 +9329,7 @@
       <c r="AW20" s="108"/>
       <c r="AX20" s="108"/>
       <c r="AY20" s="118" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="AZ20" s="118"/>
       <c r="BA20" s="118"/>
@@ -9557,7 +9546,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
@@ -9567,7 +9556,7 @@
       <c r="I21" s="81"/>
       <c r="J21" s="82"/>
       <c r="K21" s="101" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="L21" s="101"/>
       <c r="M21" s="101"/>
@@ -9577,7 +9566,7 @@
       <c r="Q21" s="101"/>
       <c r="R21" s="102"/>
       <c r="S21" s="101" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="T21" s="101"/>
       <c r="U21" s="101"/>
@@ -9595,7 +9584,7 @@
       </c>
       <c r="AD21" s="122"/>
       <c r="AE21" s="123" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="AF21" s="108"/>
       <c r="AG21" s="108"/>
@@ -9617,7 +9606,7 @@
       <c r="AW21" s="108"/>
       <c r="AX21" s="108"/>
       <c r="AY21" s="118" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AZ21" s="118"/>
       <c r="BA21" s="118"/>
@@ -9834,7 +9823,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
@@ -9844,7 +9833,7 @@
       <c r="I22" s="81"/>
       <c r="J22" s="82"/>
       <c r="K22" s="101" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L22" s="101"/>
       <c r="M22" s="101"/>
@@ -9854,7 +9843,7 @@
       <c r="Q22" s="101"/>
       <c r="R22" s="102"/>
       <c r="S22" s="101" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="T22" s="101"/>
       <c r="U22" s="101"/>
@@ -9872,7 +9861,7 @@
       </c>
       <c r="AD22" s="122"/>
       <c r="AE22" s="123" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="108"/>
       <c r="AG22" s="108"/>
@@ -9894,7 +9883,7 @@
       <c r="AW22" s="108"/>
       <c r="AX22" s="108"/>
       <c r="AY22" s="118" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="AZ22" s="118"/>
       <c r="BA22" s="118"/>
@@ -10111,7 +10100,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
@@ -10121,7 +10110,7 @@
       <c r="I23" s="81"/>
       <c r="J23" s="82"/>
       <c r="K23" s="101" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L23" s="101"/>
       <c r="M23" s="101"/>
@@ -10131,7 +10120,7 @@
       <c r="Q23" s="101"/>
       <c r="R23" s="102"/>
       <c r="S23" s="101" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="T23" s="101"/>
       <c r="U23" s="101"/>
@@ -10149,7 +10138,7 @@
       </c>
       <c r="AD23" s="122"/>
       <c r="AE23" s="123" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="AF23" s="108"/>
       <c r="AG23" s="108"/>
@@ -10171,7 +10160,7 @@
       <c r="AW23" s="108"/>
       <c r="AX23" s="108"/>
       <c r="AY23" s="118" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AZ23" s="118"/>
       <c r="BA23" s="118"/>
@@ -11850,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="84"/>
@@ -11860,7 +11849,7 @@
       <c r="I30" s="84"/>
       <c r="J30" s="85"/>
       <c r="K30" s="83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L30" s="84"/>
       <c r="M30" s="84"/>
@@ -11870,7 +11859,7 @@
       <c r="Q30" s="84"/>
       <c r="R30" s="85"/>
       <c r="S30" s="83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T30" s="84"/>
       <c r="U30" s="84"/>
@@ -11880,7 +11869,7 @@
       <c r="Y30" s="84"/>
       <c r="Z30" s="85"/>
       <c r="AA30" s="87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB30" s="88"/>
       <c r="AC30" s="88"/>
@@ -12121,7 +12110,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="84"/>
       <c r="E31" s="84"/>
@@ -12131,7 +12120,7 @@
       <c r="I31" s="84"/>
       <c r="J31" s="85"/>
       <c r="K31" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="84"/>
@@ -12141,7 +12130,7 @@
       <c r="Q31" s="84"/>
       <c r="R31" s="85"/>
       <c r="S31" s="83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T31" s="84"/>
       <c r="U31" s="84"/>
@@ -12151,7 +12140,7 @@
       <c r="Y31" s="84"/>
       <c r="Z31" s="85"/>
       <c r="AA31" s="87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB31" s="88"/>
       <c r="AC31" s="88"/>
@@ -13173,7 +13162,7 @@
     <row r="35" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="48" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -13695,7 +13684,7 @@
     <row r="37" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="21" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="7"/>
@@ -14217,7 +14206,7 @@
     <row r="39" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="34" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -14737,65 +14726,64 @@
       <c r="IX40" s="1"/>
     </row>
     <row r="41" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
-      <c r="AM41" s="8"/>
-      <c r="AN41" s="8"/>
-      <c r="AO41" s="8"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="8"/>
-      <c r="AR41" s="8"/>
-      <c r="AS41" s="8"/>
-      <c r="AT41" s="7"/>
-      <c r="AU41" s="6"/>
-      <c r="AV41" s="7"/>
-      <c r="AW41" s="7"/>
-      <c r="AX41" s="7"/>
-      <c r="AY41" s="7"/>
-      <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-      <c r="BB41" s="7"/>
-      <c r="BC41" s="7"/>
-      <c r="BD41" s="7"/>
-      <c r="BE41" s="7"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="16"/>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
+      <c r="AV41" s="16"/>
+      <c r="AW41" s="16"/>
+      <c r="AX41" s="16"/>
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="16"/>
+      <c r="BA41" s="16"/>
+      <c r="BB41" s="16"/>
+      <c r="BC41" s="16"/>
+      <c r="BD41" s="16"/>
+      <c r="BE41" s="16"/>
       <c r="BF41" s="7"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="52"/>
@@ -14999,63 +14987,63 @@
       <c r="IX41" s="1"/>
     </row>
     <row r="42" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
-      <c r="AM42" s="8"/>
-      <c r="AN42" s="8"/>
-      <c r="AO42" s="8"/>
-      <c r="AP42" s="8"/>
-      <c r="AQ42" s="8"/>
-      <c r="AR42" s="8"/>
-      <c r="AS42" s="8"/>
-      <c r="AT42" s="7"/>
-      <c r="AU42" s="6"/>
-      <c r="AV42" s="7"/>
-      <c r="AW42" s="7"/>
-      <c r="AX42" s="7"/>
-      <c r="AY42" s="7"/>
-      <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
-      <c r="BB42" s="7"/>
-      <c r="BC42" s="7"/>
-      <c r="BD42" s="7"/>
-      <c r="BE42" s="7"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="16"/>
+      <c r="AP42" s="16"/>
+      <c r="AQ42" s="16"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="16"/>
+      <c r="AV42" s="16"/>
+      <c r="AW42" s="16"/>
+      <c r="AX42" s="16"/>
+      <c r="AY42" s="16"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
+      <c r="BC42" s="16"/>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="16"/>
       <c r="BF42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="52"/>
@@ -15259,67 +15247,65 @@
       <c r="IX42" s="1"/>
     </row>
     <row r="43" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-      <c r="AQ43" s="8"/>
-      <c r="AR43" s="8"/>
-      <c r="AS43" s="8"/>
-      <c r="AT43" s="7"/>
-      <c r="AU43" s="6"/>
-      <c r="AV43" s="7"/>
-      <c r="AW43" s="7"/>
-      <c r="AX43" s="7"/>
-      <c r="AY43" s="7"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="7"/>
-      <c r="BC43" s="7"/>
-      <c r="BD43" s="7"/>
-      <c r="BE43" s="7"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="16"/>
+      <c r="AQ43" s="16"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="16"/>
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="16"/>
+      <c r="AV43" s="16"/>
+      <c r="AW43" s="16"/>
+      <c r="AX43" s="16"/>
+      <c r="AY43" s="16"/>
+      <c r="AZ43" s="16"/>
+      <c r="BA43" s="16"/>
+      <c r="BB43" s="16"/>
+      <c r="BC43" s="16"/>
+      <c r="BD43" s="16"/>
+      <c r="BE43" s="16"/>
       <c r="BF43" s="7"/>
       <c r="BG43" s="7"/>
       <c r="BH43" s="52"/>
@@ -15523,63 +15509,63 @@
       <c r="IX43" s="1"/>
     </row>
     <row r="44" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="8"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
-      <c r="AP44" s="8"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="8"/>
-      <c r="AS44" s="8"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="6"/>
-      <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
-      <c r="AX44" s="7"/>
-      <c r="AY44" s="7"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
-      <c r="BC44" s="7"/>
-      <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="16"/>
+      <c r="AP44" s="16"/>
+      <c r="AQ44" s="16"/>
+      <c r="AR44" s="16"/>
+      <c r="AS44" s="16"/>
+      <c r="AT44" s="16"/>
+      <c r="AU44" s="16"/>
+      <c r="AV44" s="16"/>
+      <c r="AW44" s="16"/>
+      <c r="AX44" s="16"/>
+      <c r="AY44" s="16"/>
+      <c r="AZ44" s="16"/>
+      <c r="BA44" s="16"/>
+      <c r="BB44" s="16"/>
+      <c r="BC44" s="16"/>
+      <c r="BD44" s="16"/>
+      <c r="BE44" s="16"/>
       <c r="BF44" s="7"/>
       <c r="BG44" s="7"/>
       <c r="BH44" s="52"/>
@@ -15784,10 +15770,10 @@
     </row>
     <row r="45" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="19"/>
+      <c r="B45" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="16"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -15800,51 +15786,51 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
+      <c r="P45" s="8"/>
       <c r="Q45" s="18"/>
-      <c r="R45" s="16"/>
+      <c r="R45" s="9"/>
       <c r="S45" s="17"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="12"/>
-      <c r="AO45" s="12"/>
-      <c r="AP45" s="12"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="12"/>
-      <c r="AS45" s="12"/>
-      <c r="AT45" s="19"/>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="19"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="7"/>
       <c r="AW45" s="7"/>
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
       <c r="AZ45" s="7"/>
       <c r="BA45" s="7"/>
-      <c r="BB45" s="10"/>
-      <c r="BC45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="10"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="10"/>
-      <c r="BH45" s="22"/>
+      <c r="BB45" s="7"/>
+      <c r="BC45" s="7"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7"/>
+      <c r="BF45" s="7"/>
+      <c r="BG45" s="7"/>
+      <c r="BH45" s="52"/>
       <c r="BI45" s="22"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
@@ -16046,8 +16032,8 @@
     </row>
     <row r="46" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -16060,51 +16046,51 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="17"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="7"/>
       <c r="T46" s="8"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="12"/>
-      <c r="AI46" s="12"/>
-      <c r="AJ46" s="12"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="12"/>
-      <c r="AO46" s="12"/>
-      <c r="AP46" s="12"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="12"/>
-      <c r="AS46" s="12"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="19"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="6"/>
+      <c r="AV46" s="7"/>
       <c r="AW46" s="7"/>
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="7"/>
       <c r="BA46" s="7"/>
-      <c r="BB46" s="10"/>
-      <c r="BC46" s="10"/>
-      <c r="BD46" s="10"/>
-      <c r="BE46" s="10"/>
-      <c r="BF46" s="10"/>
-      <c r="BG46" s="10"/>
-      <c r="BH46" s="22"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7"/>
+      <c r="BF46" s="7"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="52"/>
       <c r="BI46" s="22"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
@@ -16306,10 +16292,10 @@
     </row>
     <row r="47" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
-      <c r="B47" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="19"/>
+      <c r="B47" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="16"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -16322,51 +16308,51 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="17"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="7"/>
       <c r="T47" s="8"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12"/>
-      <c r="AJ47" s="12"/>
-      <c r="AK47" s="12"/>
-      <c r="AL47" s="12"/>
-      <c r="AM47" s="12"/>
-      <c r="AN47" s="12"/>
-      <c r="AO47" s="12"/>
-      <c r="AP47" s="12"/>
-      <c r="AQ47" s="12"/>
-      <c r="AR47" s="12"/>
-      <c r="AS47" s="12"/>
-      <c r="AT47" s="19"/>
-      <c r="AU47" s="14"/>
-      <c r="AV47" s="19"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+      <c r="AO47" s="8"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="8"/>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="6"/>
+      <c r="AV47" s="7"/>
       <c r="AW47" s="7"/>
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="7"/>
       <c r="BA47" s="7"/>
-      <c r="BB47" s="10"/>
-      <c r="BC47" s="10"/>
-      <c r="BD47" s="10"/>
-      <c r="BE47" s="10"/>
-      <c r="BF47" s="10"/>
-      <c r="BG47" s="10"/>
-      <c r="BH47" s="22"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="7"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="52"/>
       <c r="BI47" s="22"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
@@ -16569,7 +16555,7 @@
     <row r="48" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -16578,41 +16564,41 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12"/>
-      <c r="AJ48" s="12"/>
-      <c r="AK48" s="12"/>
-      <c r="AL48" s="12"/>
-      <c r="AM48" s="12"/>
-      <c r="AN48" s="12"/>
-      <c r="AO48" s="12"/>
-      <c r="AP48" s="12"/>
-      <c r="AQ48" s="12"/>
-      <c r="AR48" s="12"/>
-      <c r="AS48" s="12"/>
-      <c r="AT48" s="19"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="8"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="8"/>
+      <c r="AR48" s="8"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="7"/>
       <c r="AU48" s="6"/>
       <c r="AV48" s="7"/>
       <c r="AW48" s="7"/>
@@ -16620,13 +16606,13 @@
       <c r="AY48" s="7"/>
       <c r="AZ48" s="7"/>
       <c r="BA48" s="7"/>
-      <c r="BB48" s="10"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="22"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="7"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="52"/>
       <c r="BI48" s="22"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
@@ -16828,10 +16814,10 @@
     </row>
     <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
-      <c r="B49" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="7"/>
+      <c r="B49" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="19"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -16840,28 +16826,28 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="18"/>
       <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="8"/>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
+      <c r="Y49" s="20"/>
       <c r="Z49" s="16"/>
       <c r="AA49" s="16"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
       <c r="AH49" s="12"/>
       <c r="AI49" s="12"/>
       <c r="AJ49" s="12"/>
@@ -16875,8 +16861,8 @@
       <c r="AR49" s="12"/>
       <c r="AS49" s="12"/>
       <c r="AT49" s="19"/>
-      <c r="AU49" s="6"/>
-      <c r="AV49" s="7"/>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="19"/>
       <c r="AW49" s="7"/>
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
@@ -17090,8 +17076,8 @@
     </row>
     <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -17104,24 +17090,24 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="18"/>
       <c r="R50" s="16"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="16"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="8"/>
       <c r="U50" s="16"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
       <c r="AH50" s="12"/>
       <c r="AI50" s="12"/>
       <c r="AJ50" s="12"/>
@@ -17135,8 +17121,8 @@
       <c r="AR50" s="12"/>
       <c r="AS50" s="12"/>
       <c r="AT50" s="19"/>
-      <c r="AU50" s="6"/>
-      <c r="AV50" s="7"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="19"/>
       <c r="AW50" s="7"/>
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
@@ -17350,10 +17336,10 @@
     </row>
     <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="7"/>
+      <c r="B51" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="19"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -17366,24 +17352,24 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="18"/>
       <c r="R51" s="16"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="16"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="8"/>
       <c r="U51" s="16"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
       <c r="AH51" s="12"/>
       <c r="AI51" s="12"/>
       <c r="AJ51" s="12"/>
@@ -17397,8 +17383,8 @@
       <c r="AR51" s="12"/>
       <c r="AS51" s="12"/>
       <c r="AT51" s="19"/>
-      <c r="AU51" s="6"/>
-      <c r="AV51" s="7"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="19"/>
       <c r="AW51" s="7"/>
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
@@ -18393,7 +18379,7 @@
     <row r="55" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="124" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C55" s="125"/>
       <c r="D55" s="125"/>
@@ -18655,7 +18641,7 @@
     <row r="56" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
@@ -18904,7 +18890,7 @@
       <c r="A57" s="21"/>
       <c r="B57" s="34"/>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
@@ -19152,9 +19138,6 @@
     <row r="58" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="63"/>
@@ -19401,9 +19384,6 @@
     <row r="59" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="63"/>
@@ -22044,27 +22024,12 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="53" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -22196,24 +22161,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22229,4 +22192,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/020-内部設計/023-検索機能/Main/クラス仕様書_MainService.xlsx
+++ b/020-内部設計/023-検索機能/Main/クラス仕様書_MainService.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7096C0F-4376-4091-9D94-8BC6E884650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CAAFC6-EFF4-4E67-8864-FAFD4E54CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -514,36 +514,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>2.　処理欄の項番2.3.4でクラス参照エラーが発生した場合、</t>
-    <rPh sb="24" eb="26">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>SQLエラー</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1.　処理欄の項番2.3.4でSQLエラーが発生した場合、</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -791,6 +762,35 @@
     </rPh>
     <rPh sb="4" eb="8">
       <t>ゼンケンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2.　処理欄の項番1でクラス参照エラーが発生した場合、</t>
+    <rPh sb="20" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1.　処理欄の項番1,2,3でSQLエラーが発生した場合、</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1462,22 +1462,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1489,27 +1477,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,9 +1491,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,20 +1500,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1560,34 +1515,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,6 +1571,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1924,85 +1924,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="105" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="105" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="106" t="s">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="105" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="106" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="105" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="105"/>
-      <c r="BD1" s="108">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45909</v>
       </c>
-      <c r="BE1" s="108"/>
-      <c r="BF1" s="108"/>
-      <c r="BG1" s="108"/>
-      <c r="BH1" s="108"/>
-      <c r="BI1" s="108"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2202,80 +2202,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="105" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="105" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="106" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="90" t="str">
         <f>G6</f>
         <v>MainService</v>
       </c>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="105" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="105" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="105"/>
-      <c r="BC2" s="105"/>
-      <c r="BD2" s="108">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93">
         <v>45918</v>
       </c>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="108"/>
-      <c r="BG2" s="108"/>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="108"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2475,410 +2475,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="99" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="100"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="100"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="100"/>
-      <c r="BD4" s="100"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="100"/>
-      <c r="BI4" s="101"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="89"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="100"/>
-      <c r="AW5" s="100"/>
-      <c r="AX5" s="100"/>
-      <c r="AY5" s="100"/>
-      <c r="AZ5" s="100"/>
-      <c r="BA5" s="100"/>
-      <c r="BB5" s="100"/>
-      <c r="BC5" s="100"/>
-      <c r="BD5" s="100"/>
-      <c r="BE5" s="100"/>
-      <c r="BF5" s="100"/>
-      <c r="BG5" s="100"/>
-      <c r="BH5" s="100"/>
-      <c r="BI5" s="101"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="89"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="99" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AK6" s="100"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="100"/>
-      <c r="AY6" s="100"/>
-      <c r="AZ6" s="100"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="100"/>
-      <c r="BC6" s="100"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="100"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
-      <c r="BI6" s="101"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="89"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="99" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
-      <c r="AU7" s="100"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="100"/>
-      <c r="AX7" s="100"/>
-      <c r="AY7" s="100"/>
-      <c r="AZ7" s="100"/>
-      <c r="BA7" s="100"/>
-      <c r="BB7" s="100"/>
-      <c r="BC7" s="100"/>
-      <c r="BD7" s="100"/>
-      <c r="BE7" s="100"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
-      <c r="BI7" s="101"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="88"/>
+      <c r="AP7" s="88"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="88"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="89"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="99" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="100"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="100"/>
-      <c r="AN8" s="100"/>
-      <c r="AO8" s="100"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="100"/>
-      <c r="AS8" s="100"/>
-      <c r="AT8" s="100"/>
-      <c r="AU8" s="100"/>
-      <c r="AV8" s="100"/>
-      <c r="AW8" s="100"/>
-      <c r="AX8" s="100"/>
-      <c r="AY8" s="100"/>
-      <c r="AZ8" s="100"/>
-      <c r="BA8" s="100"/>
-      <c r="BB8" s="100"/>
-      <c r="BC8" s="100"/>
-      <c r="BD8" s="100"/>
-      <c r="BE8" s="100"/>
-      <c r="BF8" s="100"/>
-      <c r="BG8" s="100"/>
-      <c r="BH8" s="100"/>
-      <c r="BI8" s="101"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="88"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="89"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="99" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="97" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="98" t="s">
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="98"/>
-      <c r="AU9" s="98"/>
-      <c r="AV9" s="98"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="98"/>
-      <c r="BA9" s="98"/>
-      <c r="BB9" s="98"/>
-      <c r="BC9" s="98"/>
-      <c r="BD9" s="98"/>
-      <c r="BE9" s="98"/>
-      <c r="BF9" s="98"/>
-      <c r="BG9" s="98"/>
-      <c r="BH9" s="98"/>
-      <c r="BI9" s="98"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="105"/>
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2890,169 +2890,169 @@
       <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="80" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="80" t="s">
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="82" t="s">
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82" t="s">
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="82"/>
-      <c r="BA12" s="103" t="s">
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
+      <c r="AP12" s="101"/>
+      <c r="AQ12" s="101"/>
+      <c r="AR12" s="101"/>
+      <c r="AS12" s="101"/>
+      <c r="AT12" s="101"/>
+      <c r="AU12" s="101"/>
+      <c r="AV12" s="101"/>
+      <c r="AW12" s="101"/>
+      <c r="AX12" s="101"/>
+      <c r="AY12" s="101"/>
+      <c r="AZ12" s="101"/>
+      <c r="BA12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="80"/>
-      <c r="BD12" s="80"/>
-      <c r="BE12" s="80"/>
-      <c r="BF12" s="80"/>
-      <c r="BG12" s="80"/>
-      <c r="BH12" s="81"/>
-      <c r="DI12" s="80" t="s">
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="96"/>
+      <c r="DI12" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="80"/>
-      <c r="DK12" s="80"/>
-      <c r="DL12" s="80"/>
-      <c r="DM12" s="80"/>
-      <c r="DN12" s="80"/>
-      <c r="DO12" s="80"/>
-      <c r="DP12" s="81"/>
+      <c r="DJ12" s="95"/>
+      <c r="DK12" s="95"/>
+      <c r="DL12" s="95"/>
+      <c r="DM12" s="95"/>
+      <c r="DN12" s="95"/>
+      <c r="DO12" s="95"/>
+      <c r="DP12" s="96"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="77" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="77" t="s">
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="104" t="s">
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="104" t="s">
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="104"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="104"/>
-      <c r="AY13" s="104"/>
-      <c r="AZ13" s="104"/>
-      <c r="BA13" s="88" t="s">
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
+      <c r="AX13" s="102"/>
+      <c r="AY13" s="102"/>
+      <c r="AZ13" s="102"/>
+      <c r="BA13" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="BB13" s="89"/>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="89"/>
-      <c r="BF13" s="89"/>
-      <c r="BG13" s="89"/>
-      <c r="BH13" s="90"/>
-      <c r="DI13" s="89"/>
-      <c r="DJ13" s="89"/>
-      <c r="DK13" s="89"/>
-      <c r="DL13" s="89"/>
-      <c r="DM13" s="89"/>
-      <c r="DN13" s="89"/>
-      <c r="DO13" s="89"/>
-      <c r="DP13" s="90"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="78"/>
+      <c r="DI13" s="77"/>
+      <c r="DJ13" s="77"/>
+      <c r="DK13" s="77"/>
+      <c r="DL13" s="77"/>
+      <c r="DM13" s="77"/>
+      <c r="DN13" s="77"/>
+      <c r="DO13" s="77"/>
+      <c r="DP13" s="78"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -3063,155 +3063,155 @@
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="80" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="80" t="s">
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82" t="s">
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82" t="s">
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="102" t="s">
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="102"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="103"/>
-      <c r="BA16" s="80" t="s">
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="103"/>
+      <c r="AV16" s="103"/>
+      <c r="AW16" s="103"/>
+      <c r="AX16" s="103"/>
+      <c r="AY16" s="103"/>
+      <c r="AZ16" s="99"/>
+      <c r="BA16" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="80"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="80"/>
-      <c r="BH16" s="81"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="96"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="58">
         <v>1</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="77" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="77" t="s">
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="79" t="s">
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79" t="s">
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="87" t="s">
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="88"/>
-      <c r="BA17" s="89" t="s">
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="104"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="104"/>
+      <c r="AZ17" s="100"/>
+      <c r="BA17" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="89"/>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="89"/>
-      <c r="BG17" s="89"/>
-      <c r="BH17" s="90"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="77"/>
+      <c r="BD17" s="77"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="78"/>
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -3222,155 +3222,155 @@
       <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="80" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="80" t="s">
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="82" t="s">
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82" t="s">
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="102" t="s">
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="102"/>
-      <c r="AK20" s="102"/>
-      <c r="AL20" s="102"/>
-      <c r="AM20" s="102"/>
-      <c r="AN20" s="102"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="102"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="102"/>
-      <c r="AS20" s="102"/>
-      <c r="AT20" s="102"/>
-      <c r="AU20" s="102"/>
-      <c r="AV20" s="102"/>
-      <c r="AW20" s="102"/>
-      <c r="AX20" s="102"/>
-      <c r="AY20" s="102"/>
-      <c r="AZ20" s="103"/>
-      <c r="BA20" s="80" t="s">
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="103"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="103"/>
+      <c r="AT20" s="103"/>
+      <c r="AU20" s="103"/>
+      <c r="AV20" s="103"/>
+      <c r="AW20" s="103"/>
+      <c r="AX20" s="103"/>
+      <c r="AY20" s="103"/>
+      <c r="AZ20" s="99"/>
+      <c r="BA20" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="BB20" s="80"/>
-      <c r="BC20" s="80"/>
-      <c r="BD20" s="80"/>
-      <c r="BE20" s="80"/>
-      <c r="BF20" s="80"/>
-      <c r="BG20" s="80"/>
-      <c r="BH20" s="81"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="96"/>
     </row>
     <row r="21" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29">
         <v>1</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="77" t="s">
+      <c r="C21" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="77" t="s">
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="79" t="s">
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79" t="s">
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="88"/>
-      <c r="BA21" s="89" t="s">
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="104"/>
+      <c r="AW21" s="104"/>
+      <c r="AX21" s="104"/>
+      <c r="AY21" s="104"/>
+      <c r="AZ21" s="100"/>
+      <c r="BA21" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="89"/>
-      <c r="BD21" s="89"/>
-      <c r="BE21" s="89"/>
-      <c r="BF21" s="89"/>
-      <c r="BG21" s="89"/>
-      <c r="BH21" s="90"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="78"/>
     </row>
     <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
@@ -3640,74 +3640,74 @@
       <c r="B24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82" t="s">
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="91" t="s">
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="80" t="s">
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="108"/>
+      <c r="AL24" s="108"/>
+      <c r="AM24" s="108"/>
+      <c r="AN24" s="108"/>
+      <c r="AO24" s="108"/>
+      <c r="AP24" s="108"/>
+      <c r="AQ24" s="108"/>
+      <c r="AR24" s="108"/>
+      <c r="AS24" s="108"/>
+      <c r="AT24" s="108"/>
+      <c r="AU24" s="108"/>
+      <c r="AV24" s="108"/>
+      <c r="AW24" s="108"/>
+      <c r="AX24" s="108"/>
+      <c r="AY24" s="108"/>
+      <c r="AZ24" s="109"/>
+      <c r="BA24" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="BB24" s="80"/>
-      <c r="BC24" s="80"/>
-      <c r="BD24" s="80"/>
-      <c r="BE24" s="80"/>
-      <c r="BF24" s="80"/>
-      <c r="BG24" s="80"/>
-      <c r="BH24" s="81"/>
+      <c r="BB24" s="95"/>
+      <c r="BC24" s="95"/>
+      <c r="BD24" s="95"/>
+      <c r="BE24" s="95"/>
+      <c r="BF24" s="95"/>
+      <c r="BG24" s="95"/>
+      <c r="BH24" s="96"/>
       <c r="BI24" s="35"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -3913,74 +3913,74 @@
       <c r="B25" s="29">
         <v>1</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="83" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="86" t="s">
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="94" t="s">
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="95"/>
-      <c r="AL25" s="95"/>
-      <c r="AM25" s="95"/>
-      <c r="AN25" s="95"/>
-      <c r="AO25" s="95"/>
-      <c r="AP25" s="95"/>
-      <c r="AQ25" s="95"/>
-      <c r="AR25" s="95"/>
-      <c r="AS25" s="95"/>
-      <c r="AT25" s="95"/>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="95"/>
-      <c r="AW25" s="95"/>
-      <c r="AX25" s="95"/>
-      <c r="AY25" s="95"/>
-      <c r="AZ25" s="96"/>
-      <c r="BA25" s="89" t="s">
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
+      <c r="AS25" s="84"/>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="84"/>
+      <c r="AZ25" s="85"/>
+      <c r="BA25" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="BB25" s="89"/>
-      <c r="BC25" s="89"/>
-      <c r="BD25" s="89"/>
-      <c r="BE25" s="89"/>
-      <c r="BF25" s="89"/>
-      <c r="BG25" s="89"/>
-      <c r="BH25" s="90"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="78"/>
       <c r="BI25" s="35"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="1"/>
@@ -4186,74 +4186,74 @@
       <c r="B26" s="29">
         <v>2</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="83" t="s">
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="86" t="s">
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="94" t="s">
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="95"/>
-      <c r="AM26" s="95"/>
-      <c r="AN26" s="95"/>
-      <c r="AO26" s="95"/>
-      <c r="AP26" s="95"/>
-      <c r="AQ26" s="95"/>
-      <c r="AR26" s="95"/>
-      <c r="AS26" s="95"/>
-      <c r="AT26" s="95"/>
-      <c r="AU26" s="95"/>
-      <c r="AV26" s="95"/>
-      <c r="AW26" s="95"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="95"/>
-      <c r="AZ26" s="96"/>
-      <c r="BA26" s="89" t="s">
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="84"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="84"/>
+      <c r="AL26" s="84"/>
+      <c r="AM26" s="84"/>
+      <c r="AN26" s="84"/>
+      <c r="AO26" s="84"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="84"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="85"/>
+      <c r="BA26" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="BB26" s="89"/>
-      <c r="BC26" s="89"/>
-      <c r="BD26" s="89"/>
-      <c r="BE26" s="89"/>
-      <c r="BF26" s="89"/>
-      <c r="BG26" s="89"/>
-      <c r="BH26" s="90"/>
+      <c r="BB26" s="77"/>
+      <c r="BC26" s="77"/>
+      <c r="BD26" s="77"/>
+      <c r="BE26" s="77"/>
+      <c r="BF26" s="77"/>
+      <c r="BG26" s="77"/>
+      <c r="BH26" s="78"/>
       <c r="BI26" s="19"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="1"/>
@@ -4456,11 +4456,73 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="AA26:AZ26"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="AA24:AZ24"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="AA25:AZ25"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:BI8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:BI7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="DI12:DP12"/>
+    <mergeCell ref="DI13:DP13"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AI12:AZ12"/>
+    <mergeCell ref="AI13:AZ13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A4:F4"/>
@@ -4477,73 +4539,11 @@
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AI12:AZ12"/>
-    <mergeCell ref="AI13:AZ13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="AG20:AZ20"/>
-    <mergeCell ref="DI12:DP12"/>
-    <mergeCell ref="DI13:DP13"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:BI8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="AA24:AZ24"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="AA25:AZ25"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="AA26:AZ26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4562,7 +4562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:JB56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -4573,90 +4573,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:262" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="105" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="106" t="str">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="90" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="105" t="s">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="106" t="str">
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="90" t="str">
         <f>クラス仕様!AE1</f>
         <v>検索処理</v>
       </c>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="105" t="s">
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="106" t="s">
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="106"/>
-      <c r="BD1" s="105" t="s">
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BE1" s="105"/>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="108">
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="93">
         <v>45910</v>
       </c>
-      <c r="BH1" s="108"/>
-      <c r="BI1" s="108"/>
-      <c r="BJ1" s="108"/>
-      <c r="BK1" s="108"/>
-      <c r="BL1" s="108"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
@@ -4856,83 +4856,83 @@
       <c r="JA1" s="1"/>
     </row>
     <row r="2" spans="1:262" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="105" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="105" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="106" t="str">
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="90" t="str">
         <f>クラス仕様!G6</f>
         <v>MainService</v>
       </c>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="105" t="s">
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="106"/>
-      <c r="BC2" s="106"/>
-      <c r="BD2" s="105" t="s">
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BE2" s="105"/>
-      <c r="BF2" s="105"/>
-      <c r="BG2" s="108">
-        <v>45918</v>
-      </c>
-      <c r="BH2" s="108"/>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="93">
+        <v>45924</v>
+      </c>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
@@ -5132,74 +5132,74 @@
       <c r="JA2" s="1"/>
     </row>
     <row r="4" spans="1:262" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="121"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="121"/>
-      <c r="BF4" s="121"/>
-      <c r="BG4" s="121"/>
-      <c r="BH4" s="121"/>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="121"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="111"/>
+      <c r="AU4" s="111"/>
+      <c r="AV4" s="111"/>
+      <c r="AW4" s="111"/>
+      <c r="AX4" s="111"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="111"/>
+      <c r="BB4" s="111"/>
+      <c r="BC4" s="111"/>
+      <c r="BD4" s="111"/>
+      <c r="BE4" s="111"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="111"/>
+      <c r="BH4" s="111"/>
+      <c r="BI4" s="111"/>
+      <c r="BJ4" s="111"/>
+      <c r="BK4" s="111"/>
+      <c r="BL4" s="111"/>
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
@@ -5399,74 +5399,74 @@
       <c r="JA4" s="1"/>
     </row>
     <row r="5" spans="1:262" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="123"/>
-      <c r="BB5" s="123"/>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="123"/>
-      <c r="BE5" s="123"/>
-      <c r="BF5" s="123"/>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="123"/>
-      <c r="BI5" s="123"/>
-      <c r="BJ5" s="123"/>
-      <c r="BK5" s="123"/>
-      <c r="BL5" s="123"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="113"/>
+      <c r="BD5" s="113"/>
+      <c r="BE5" s="113"/>
+      <c r="BF5" s="113"/>
+      <c r="BG5" s="113"/>
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="113"/>
+      <c r="BJ5" s="113"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="113"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
@@ -6199,74 +6199,74 @@
       <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82" t="s">
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82" t="s">
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="82"/>
-      <c r="BE8" s="82"/>
-      <c r="BF8" s="82"/>
-      <c r="BG8" s="82"/>
-      <c r="BH8" s="82"/>
-      <c r="BI8" s="82"/>
-      <c r="BJ8" s="82"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="101"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="101"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="101"/>
+      <c r="BA8" s="101"/>
+      <c r="BB8" s="101"/>
+      <c r="BC8" s="101"/>
+      <c r="BD8" s="101"/>
+      <c r="BE8" s="101"/>
+      <c r="BF8" s="101"/>
+      <c r="BG8" s="101"/>
+      <c r="BH8" s="101"/>
+      <c r="BI8" s="101"/>
+      <c r="BJ8" s="101"/>
       <c r="BK8" s="19"/>
       <c r="BL8" s="35"/>
       <c r="BM8" s="3"/>
@@ -6473,74 +6473,74 @@
       <c r="B9" s="29">
         <v>1</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86" t="s">
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="120" t="s">
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="120"/>
-      <c r="AI9" s="120"/>
-      <c r="AJ9" s="120"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="120"/>
-      <c r="AM9" s="120"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="120"/>
-      <c r="AP9" s="120"/>
-      <c r="AQ9" s="120"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="120"/>
-      <c r="AT9" s="120"/>
-      <c r="AU9" s="120"/>
-      <c r="AV9" s="120"/>
-      <c r="AW9" s="120"/>
-      <c r="AX9" s="120"/>
-      <c r="AY9" s="120"/>
-      <c r="AZ9" s="120"/>
-      <c r="BA9" s="120"/>
-      <c r="BB9" s="120"/>
-      <c r="BC9" s="120"/>
-      <c r="BD9" s="120"/>
-      <c r="BE9" s="120"/>
-      <c r="BF9" s="120"/>
-      <c r="BG9" s="120"/>
-      <c r="BH9" s="120"/>
-      <c r="BI9" s="120"/>
-      <c r="BJ9" s="120"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110"/>
+      <c r="BF9" s="110"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="110"/>
+      <c r="BJ9" s="110"/>
       <c r="BK9" s="19"/>
       <c r="BL9" s="35"/>
       <c r="BM9" s="3"/>
@@ -7277,74 +7277,74 @@
       <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82" t="s">
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82" t="s">
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="82"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="82"/>
-      <c r="BE12" s="82"/>
-      <c r="BF12" s="82"/>
-      <c r="BG12" s="82"/>
-      <c r="BH12" s="82"/>
-      <c r="BI12" s="82"/>
-      <c r="BJ12" s="82"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="101"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
+      <c r="AP12" s="101"/>
+      <c r="AQ12" s="101"/>
+      <c r="AR12" s="101"/>
+      <c r="AS12" s="101"/>
+      <c r="AT12" s="101"/>
+      <c r="AU12" s="101"/>
+      <c r="AV12" s="101"/>
+      <c r="AW12" s="101"/>
+      <c r="AX12" s="101"/>
+      <c r="AY12" s="101"/>
+      <c r="AZ12" s="101"/>
+      <c r="BA12" s="101"/>
+      <c r="BB12" s="101"/>
+      <c r="BC12" s="101"/>
+      <c r="BD12" s="101"/>
+      <c r="BE12" s="101"/>
+      <c r="BF12" s="101"/>
+      <c r="BG12" s="101"/>
+      <c r="BH12" s="101"/>
+      <c r="BI12" s="101"/>
+      <c r="BJ12" s="101"/>
       <c r="BK12" s="19"/>
       <c r="BL12" s="35"/>
       <c r="BM12" s="3"/>
@@ -7551,74 +7551,74 @@
       <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86" t="s">
+      <c r="C13" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="120"/>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="120"/>
-      <c r="AM13" s="120"/>
-      <c r="AN13" s="120"/>
-      <c r="AO13" s="120"/>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="120"/>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="120"/>
-      <c r="AY13" s="120"/>
-      <c r="AZ13" s="120"/>
-      <c r="BA13" s="120"/>
-      <c r="BB13" s="120"/>
-      <c r="BC13" s="120"/>
-      <c r="BD13" s="120"/>
-      <c r="BE13" s="120"/>
-      <c r="BF13" s="120"/>
-      <c r="BG13" s="120"/>
-      <c r="BH13" s="120"/>
-      <c r="BI13" s="120"/>
-      <c r="BJ13" s="120"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="110"/>
+      <c r="AK13" s="110"/>
+      <c r="AL13" s="110"/>
+      <c r="AM13" s="110"/>
+      <c r="AN13" s="110"/>
+      <c r="AO13" s="110"/>
+      <c r="AP13" s="110"/>
+      <c r="AQ13" s="110"/>
+      <c r="AR13" s="110"/>
+      <c r="AS13" s="110"/>
+      <c r="AT13" s="110"/>
+      <c r="AU13" s="110"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="110"/>
+      <c r="AX13" s="110"/>
+      <c r="AY13" s="110"/>
+      <c r="AZ13" s="110"/>
+      <c r="BA13" s="110"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="110"/>
+      <c r="BD13" s="110"/>
+      <c r="BE13" s="110"/>
+      <c r="BF13" s="110"/>
+      <c r="BG13" s="110"/>
+      <c r="BH13" s="110"/>
+      <c r="BI13" s="110"/>
+      <c r="BJ13" s="110"/>
       <c r="BK13" s="19"/>
       <c r="BL13" s="35"/>
       <c r="BM13" s="3"/>
@@ -8157,80 +8157,80 @@
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="80" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="80" t="s">
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="118" t="s">
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="119" t="s">
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="119" t="s">
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="102"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="82" t="s">
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="103"/>
+      <c r="AV16" s="103"/>
+      <c r="AW16" s="103"/>
+      <c r="AX16" s="103"/>
+      <c r="AY16" s="103"/>
+      <c r="AZ16" s="103"/>
+      <c r="BA16" s="103"/>
+      <c r="BB16" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="BC16" s="82"/>
-      <c r="BD16" s="82"/>
-      <c r="BE16" s="82"/>
-      <c r="BF16" s="82"/>
-      <c r="BG16" s="82"/>
-      <c r="BH16" s="82"/>
-      <c r="BI16" s="82"/>
-      <c r="BJ16" s="82"/>
+      <c r="BC16" s="101"/>
+      <c r="BD16" s="101"/>
+      <c r="BE16" s="101"/>
+      <c r="BF16" s="101"/>
+      <c r="BG16" s="101"/>
+      <c r="BH16" s="101"/>
+      <c r="BI16" s="101"/>
+      <c r="BJ16" s="101"/>
       <c r="BK16" s="19"/>
       <c r="BL16" s="35"/>
       <c r="BM16" s="3"/>
@@ -8437,80 +8437,80 @@
       <c r="B17" s="29">
         <v>1</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="77" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="77" t="s">
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="112" t="s">
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="112" t="s">
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="110" t="s">
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="87"/>
-      <c r="BA17" s="87"/>
-      <c r="BB17" s="111" t="s">
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="104"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="104"/>
+      <c r="AZ17" s="104"/>
+      <c r="BA17" s="104"/>
+      <c r="BB17" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="BC17" s="111"/>
-      <c r="BD17" s="111"/>
-      <c r="BE17" s="111"/>
-      <c r="BF17" s="111"/>
-      <c r="BG17" s="111"/>
-      <c r="BH17" s="111"/>
-      <c r="BI17" s="111"/>
-      <c r="BJ17" s="111"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
+      <c r="BI17" s="114"/>
+      <c r="BJ17" s="114"/>
       <c r="BK17" s="19"/>
       <c r="BL17" s="35"/>
       <c r="BM17" s="3"/>
@@ -8717,80 +8717,80 @@
       <c r="B18" s="58">
         <v>2</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="77" t="s">
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="77" t="s">
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="112" t="s">
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="112" t="s">
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="110" t="s">
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
-      <c r="BB18" s="111" t="s">
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="104"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BA18" s="104"/>
+      <c r="BB18" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="BC18" s="111"/>
-      <c r="BD18" s="111"/>
-      <c r="BE18" s="111"/>
-      <c r="BF18" s="111"/>
-      <c r="BG18" s="111"/>
-      <c r="BH18" s="111"/>
-      <c r="BI18" s="111"/>
-      <c r="BJ18" s="111"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
+      <c r="BI18" s="114"/>
+      <c r="BJ18" s="114"/>
       <c r="BK18" s="19"/>
       <c r="BL18" s="35"/>
       <c r="BM18" s="3"/>
@@ -8997,80 +8997,80 @@
       <c r="B19" s="58">
         <v>3</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="77" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="112" t="s">
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="112" t="s">
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="110" t="s">
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="87"/>
-      <c r="BA19" s="87"/>
-      <c r="BB19" s="111" t="s">
+      <c r="AI19" s="104"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="104"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="104"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="104"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="104"/>
+      <c r="AT19" s="104"/>
+      <c r="AU19" s="104"/>
+      <c r="AV19" s="104"/>
+      <c r="AW19" s="104"/>
+      <c r="AX19" s="104"/>
+      <c r="AY19" s="104"/>
+      <c r="AZ19" s="104"/>
+      <c r="BA19" s="104"/>
+      <c r="BB19" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="BC19" s="111"/>
-      <c r="BD19" s="111"/>
-      <c r="BE19" s="111"/>
-      <c r="BF19" s="111"/>
-      <c r="BG19" s="111"/>
-      <c r="BH19" s="111"/>
-      <c r="BI19" s="111"/>
-      <c r="BJ19" s="111"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
+      <c r="BI19" s="114"/>
+      <c r="BJ19" s="114"/>
       <c r="BK19" s="19"/>
       <c r="BL19" s="35"/>
       <c r="BM19" s="3"/>
@@ -9277,80 +9277,80 @@
       <c r="B20" s="58">
         <v>4</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="77" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="112" t="s">
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="112" t="s">
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="110" t="s">
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="87"/>
-      <c r="AZ20" s="87"/>
-      <c r="BA20" s="87"/>
-      <c r="BB20" s="111" t="s">
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="104"/>
+      <c r="AW20" s="104"/>
+      <c r="AX20" s="104"/>
+      <c r="AY20" s="104"/>
+      <c r="AZ20" s="104"/>
+      <c r="BA20" s="104"/>
+      <c r="BB20" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="BC20" s="111"/>
-      <c r="BD20" s="111"/>
-      <c r="BE20" s="111"/>
-      <c r="BF20" s="111"/>
-      <c r="BG20" s="111"/>
-      <c r="BH20" s="111"/>
-      <c r="BI20" s="111"/>
-      <c r="BJ20" s="111"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
+      <c r="BI20" s="114"/>
+      <c r="BJ20" s="114"/>
       <c r="BK20" s="19"/>
       <c r="BL20" s="35"/>
       <c r="BM20" s="3"/>
@@ -9557,80 +9557,80 @@
       <c r="B21" s="58">
         <v>5</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="77" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="112" t="s">
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="112" t="s">
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="110" t="s">
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="87"/>
-      <c r="BA21" s="87"/>
-      <c r="BB21" s="111" t="s">
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="104"/>
+      <c r="AW21" s="104"/>
+      <c r="AX21" s="104"/>
+      <c r="AY21" s="104"/>
+      <c r="AZ21" s="104"/>
+      <c r="BA21" s="104"/>
+      <c r="BB21" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="BC21" s="111"/>
-      <c r="BD21" s="111"/>
-      <c r="BE21" s="111"/>
-      <c r="BF21" s="111"/>
-      <c r="BG21" s="111"/>
-      <c r="BH21" s="111"/>
-      <c r="BI21" s="111"/>
-      <c r="BJ21" s="111"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
+      <c r="BI21" s="114"/>
+      <c r="BJ21" s="114"/>
       <c r="BK21" s="19"/>
       <c r="BL21" s="35"/>
       <c r="BM21" s="3"/>
@@ -9837,80 +9837,80 @@
       <c r="B22" s="58">
         <v>6</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="77" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="112" t="s">
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="112" t="s">
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="87"/>
-      <c r="AM22" s="87"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="87"/>
-      <c r="BA22" s="87"/>
-      <c r="BB22" s="111" t="s">
+      <c r="AG22" s="118"/>
+      <c r="AH22" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="104"/>
+      <c r="AV22" s="104"/>
+      <c r="AW22" s="104"/>
+      <c r="AX22" s="104"/>
+      <c r="AY22" s="104"/>
+      <c r="AZ22" s="104"/>
+      <c r="BA22" s="104"/>
+      <c r="BB22" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="BC22" s="111"/>
-      <c r="BD22" s="111"/>
-      <c r="BE22" s="111"/>
-      <c r="BF22" s="111"/>
-      <c r="BG22" s="111"/>
-      <c r="BH22" s="111"/>
-      <c r="BI22" s="111"/>
-      <c r="BJ22" s="111"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
+      <c r="BI22" s="114"/>
+      <c r="BJ22" s="114"/>
       <c r="BK22" s="19"/>
       <c r="BL22" s="35"/>
       <c r="BM22" s="3"/>
@@ -11317,74 +11317,74 @@
       <c r="B28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82" t="s">
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82" t="s">
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82" t="s">
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="82"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="82"/>
-      <c r="AZ28" s="82"/>
-      <c r="BA28" s="82"/>
-      <c r="BB28" s="82"/>
-      <c r="BC28" s="82"/>
-      <c r="BD28" s="82"/>
-      <c r="BE28" s="82"/>
-      <c r="BF28" s="82"/>
-      <c r="BG28" s="82"/>
-      <c r="BH28" s="82"/>
-      <c r="BI28" s="82"/>
-      <c r="BJ28" s="82"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="101"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
+      <c r="AV28" s="101"/>
+      <c r="AW28" s="101"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="101"/>
+      <c r="BA28" s="101"/>
+      <c r="BB28" s="101"/>
+      <c r="BC28" s="101"/>
+      <c r="BD28" s="101"/>
+      <c r="BE28" s="101"/>
+      <c r="BF28" s="101"/>
+      <c r="BG28" s="101"/>
+      <c r="BH28" s="101"/>
+      <c r="BI28" s="101"/>
+      <c r="BJ28" s="101"/>
       <c r="BK28" s="19"/>
       <c r="BL28" s="35"/>
       <c r="BM28" s="3"/>
@@ -11591,74 +11591,74 @@
       <c r="B29" s="58">
         <v>1</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="83" t="s">
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="83" t="s">
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="94" t="s">
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="117"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="84"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="84"/>
+      <c r="BA29" s="84"/>
+      <c r="BB29" s="84"/>
+      <c r="BC29" s="84"/>
+      <c r="BD29" s="84"/>
+      <c r="BE29" s="84"/>
+      <c r="BF29" s="84"/>
+      <c r="BG29" s="84"/>
+      <c r="BH29" s="84"/>
+      <c r="BI29" s="84"/>
+      <c r="BJ29" s="123"/>
       <c r="BK29" s="19"/>
       <c r="BL29" s="35"/>
       <c r="BM29" s="3"/>
@@ -11865,74 +11865,74 @@
       <c r="B30" s="58">
         <v>2</v>
       </c>
-      <c r="C30" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="83" t="s">
+      <c r="C30" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="83" t="s">
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="94" t="s">
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="117"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="84"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="AJ30" s="84"/>
+      <c r="AK30" s="84"/>
+      <c r="AL30" s="84"/>
+      <c r="AM30" s="84"/>
+      <c r="AN30" s="84"/>
+      <c r="AO30" s="84"/>
+      <c r="AP30" s="84"/>
+      <c r="AQ30" s="84"/>
+      <c r="AR30" s="84"/>
+      <c r="AS30" s="84"/>
+      <c r="AT30" s="84"/>
+      <c r="AU30" s="84"/>
+      <c r="AV30" s="84"/>
+      <c r="AW30" s="84"/>
+      <c r="AX30" s="84"/>
+      <c r="AY30" s="84"/>
+      <c r="AZ30" s="84"/>
+      <c r="BA30" s="84"/>
+      <c r="BB30" s="84"/>
+      <c r="BC30" s="84"/>
+      <c r="BD30" s="84"/>
+      <c r="BE30" s="84"/>
+      <c r="BF30" s="84"/>
+      <c r="BG30" s="84"/>
+      <c r="BH30" s="84"/>
+      <c r="BI30" s="84"/>
+      <c r="BJ30" s="123"/>
       <c r="BK30" s="19"/>
       <c r="BL30" s="35"/>
       <c r="BM30" s="3"/>
@@ -12664,70 +12664,70 @@
     </row>
     <row r="33" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="115"/>
-      <c r="AC33" s="115"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="115"/>
-      <c r="AF33" s="115"/>
-      <c r="AG33" s="115"/>
-      <c r="AH33" s="115"/>
-      <c r="AI33" s="115"/>
-      <c r="AJ33" s="115"/>
-      <c r="AK33" s="115"/>
-      <c r="AL33" s="115"/>
-      <c r="AM33" s="115"/>
-      <c r="AN33" s="115"/>
-      <c r="AO33" s="115"/>
-      <c r="AP33" s="115"/>
-      <c r="AQ33" s="115"/>
-      <c r="AR33" s="115"/>
-      <c r="AS33" s="115"/>
-      <c r="AT33" s="115"/>
-      <c r="AU33" s="115"/>
-      <c r="AV33" s="115"/>
-      <c r="AW33" s="115"/>
-      <c r="AX33" s="115"/>
-      <c r="AY33" s="115"/>
-      <c r="AZ33" s="115"/>
-      <c r="BA33" s="115"/>
-      <c r="BB33" s="115"/>
-      <c r="BC33" s="115"/>
-      <c r="BD33" s="115"/>
-      <c r="BE33" s="115"/>
-      <c r="BF33" s="115"/>
-      <c r="BG33" s="115"/>
-      <c r="BH33" s="115"/>
-      <c r="BI33" s="115"/>
-      <c r="BJ33" s="115"/>
-      <c r="BK33" s="116"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="121"/>
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="121"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="121"/>
+      <c r="AO33" s="121"/>
+      <c r="AP33" s="121"/>
+      <c r="AQ33" s="121"/>
+      <c r="AR33" s="121"/>
+      <c r="AS33" s="121"/>
+      <c r="AT33" s="121"/>
+      <c r="AU33" s="121"/>
+      <c r="AV33" s="121"/>
+      <c r="AW33" s="121"/>
+      <c r="AX33" s="121"/>
+      <c r="AY33" s="121"/>
+      <c r="AZ33" s="121"/>
+      <c r="BA33" s="121"/>
+      <c r="BB33" s="121"/>
+      <c r="BC33" s="121"/>
+      <c r="BD33" s="121"/>
+      <c r="BE33" s="121"/>
+      <c r="BF33" s="121"/>
+      <c r="BG33" s="121"/>
+      <c r="BH33" s="121"/>
+      <c r="BI33" s="121"/>
+      <c r="BJ33" s="121"/>
+      <c r="BK33" s="122"/>
       <c r="BL33" s="39"/>
       <c r="BM33" s="1"/>
       <c r="BN33" s="1"/>
@@ -13458,7 +13458,7 @@
     <row r="36" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -13985,7 +13985,7 @@
     <row r="38" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
@@ -14513,7 +14513,7 @@
     <row r="40" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="7"/>
@@ -15041,7 +15041,7 @@
     <row r="42" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="7"/>
@@ -15831,70 +15831,70 @@
     </row>
     <row r="45" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="115"/>
-      <c r="S45" s="115"/>
-      <c r="T45" s="115"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="115"/>
-      <c r="W45" s="115"/>
-      <c r="X45" s="115"/>
-      <c r="Y45" s="115"/>
-      <c r="Z45" s="115"/>
-      <c r="AA45" s="115"/>
-      <c r="AB45" s="115"/>
-      <c r="AC45" s="115"/>
-      <c r="AD45" s="115"/>
-      <c r="AE45" s="115"/>
-      <c r="AF45" s="115"/>
-      <c r="AG45" s="115"/>
-      <c r="AH45" s="115"/>
-      <c r="AI45" s="115"/>
-      <c r="AJ45" s="115"/>
-      <c r="AK45" s="115"/>
-      <c r="AL45" s="115"/>
-      <c r="AM45" s="115"/>
-      <c r="AN45" s="115"/>
-      <c r="AO45" s="115"/>
-      <c r="AP45" s="115"/>
-      <c r="AQ45" s="115"/>
-      <c r="AR45" s="115"/>
-      <c r="AS45" s="115"/>
-      <c r="AT45" s="115"/>
-      <c r="AU45" s="115"/>
-      <c r="AV45" s="115"/>
-      <c r="AW45" s="115"/>
-      <c r="AX45" s="115"/>
-      <c r="AY45" s="115"/>
-      <c r="AZ45" s="115"/>
-      <c r="BA45" s="115"/>
-      <c r="BB45" s="115"/>
-      <c r="BC45" s="115"/>
-      <c r="BD45" s="115"/>
-      <c r="BE45" s="115"/>
-      <c r="BF45" s="115"/>
-      <c r="BG45" s="115"/>
-      <c r="BH45" s="115"/>
-      <c r="BI45" s="115"/>
-      <c r="BJ45" s="115"/>
-      <c r="BK45" s="116"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
+      <c r="V45" s="121"/>
+      <c r="W45" s="121"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="121"/>
+      <c r="AA45" s="121"/>
+      <c r="AB45" s="121"/>
+      <c r="AC45" s="121"/>
+      <c r="AD45" s="121"/>
+      <c r="AE45" s="121"/>
+      <c r="AF45" s="121"/>
+      <c r="AG45" s="121"/>
+      <c r="AH45" s="121"/>
+      <c r="AI45" s="121"/>
+      <c r="AJ45" s="121"/>
+      <c r="AK45" s="121"/>
+      <c r="AL45" s="121"/>
+      <c r="AM45" s="121"/>
+      <c r="AN45" s="121"/>
+      <c r="AO45" s="121"/>
+      <c r="AP45" s="121"/>
+      <c r="AQ45" s="121"/>
+      <c r="AR45" s="121"/>
+      <c r="AS45" s="121"/>
+      <c r="AT45" s="121"/>
+      <c r="AU45" s="121"/>
+      <c r="AV45" s="121"/>
+      <c r="AW45" s="121"/>
+      <c r="AX45" s="121"/>
+      <c r="AY45" s="121"/>
+      <c r="AZ45" s="121"/>
+      <c r="BA45" s="121"/>
+      <c r="BB45" s="121"/>
+      <c r="BC45" s="121"/>
+      <c r="BD45" s="121"/>
+      <c r="BE45" s="121"/>
+      <c r="BF45" s="121"/>
+      <c r="BG45" s="121"/>
+      <c r="BH45" s="121"/>
+      <c r="BI45" s="121"/>
+      <c r="BJ45" s="121"/>
+      <c r="BK45" s="122"/>
       <c r="BL45" s="22"/>
       <c r="BM45" s="1"/>
       <c r="BN45" s="1"/>
@@ -16097,7 +16097,7 @@
     <row r="46" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="34" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
@@ -16349,7 +16349,7 @@
       <c r="A47" s="21"/>
       <c r="B47" s="34"/>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
@@ -16849,7 +16849,7 @@
     <row r="49" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="34" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
@@ -18904,11 +18904,85 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AW2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AH18:BA18"/>
+    <mergeCell ref="BB18:BJ18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:U18"/>
+    <mergeCell ref="V18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:U20"/>
+    <mergeCell ref="V20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:BA20"/>
+    <mergeCell ref="BB20:BJ20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:U22"/>
+    <mergeCell ref="V22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AH21:BA21"/>
+    <mergeCell ref="BB21:BJ21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:U21"/>
+    <mergeCell ref="V21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:BA22"/>
+    <mergeCell ref="BB22:BJ22"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="B33:BK33"/>
+    <mergeCell ref="K28:U28"/>
+    <mergeCell ref="V28:AC28"/>
+    <mergeCell ref="AD28:BJ28"/>
+    <mergeCell ref="B45:BK45"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:U19"/>
+    <mergeCell ref="V19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AH19:BA19"/>
+    <mergeCell ref="BB19:BJ19"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:U29"/>
+    <mergeCell ref="V29:AC29"/>
+    <mergeCell ref="AD29:BJ29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="K30:U30"/>
+    <mergeCell ref="V30:AC30"/>
+    <mergeCell ref="AD30:BJ30"/>
+    <mergeCell ref="BB16:BJ16"/>
+    <mergeCell ref="BB17:BJ17"/>
+    <mergeCell ref="K16:U16"/>
+    <mergeCell ref="V16:AC16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AH16:BA16"/>
+    <mergeCell ref="K17:U17"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:BA17"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:U12"/>
+    <mergeCell ref="V12:AC12"/>
+    <mergeCell ref="AD12:BJ12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:U13"/>
+    <mergeCell ref="V13:AC13"/>
+    <mergeCell ref="AD13:BJ13"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BL5"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:U8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="AD8:BJ8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:U9"/>
     <mergeCell ref="V9:AC9"/>
@@ -18925,85 +18999,11 @@
     <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BL1"/>
     <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BL5"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="AD8:BJ8"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:U12"/>
-    <mergeCell ref="V12:AC12"/>
-    <mergeCell ref="AD12:BJ12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:U13"/>
-    <mergeCell ref="V13:AC13"/>
-    <mergeCell ref="AD13:BJ13"/>
-    <mergeCell ref="BB16:BJ16"/>
-    <mergeCell ref="BB17:BJ17"/>
-    <mergeCell ref="K16:U16"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AH16:BA16"/>
-    <mergeCell ref="K17:U17"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:BA17"/>
-    <mergeCell ref="B45:BK45"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:U19"/>
-    <mergeCell ref="V19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:BA19"/>
-    <mergeCell ref="BB19:BJ19"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K29:U29"/>
-    <mergeCell ref="V29:AC29"/>
-    <mergeCell ref="AD29:BJ29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="K30:U30"/>
-    <mergeCell ref="V30:AC30"/>
-    <mergeCell ref="AD30:BJ30"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B33:BK33"/>
-    <mergeCell ref="K28:U28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="AD28:BJ28"/>
-    <mergeCell ref="AH20:BA20"/>
-    <mergeCell ref="BB20:BJ20"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:U22"/>
-    <mergeCell ref="V22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AH21:BA21"/>
-    <mergeCell ref="BB21:BJ21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:U21"/>
-    <mergeCell ref="V21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AH22:BA22"/>
-    <mergeCell ref="BB22:BJ22"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:U20"/>
-    <mergeCell ref="V20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AH18:BA18"/>
-    <mergeCell ref="BB18:BJ18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:U18"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -19025,21 +19025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -19171,24 +19156,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19204,4 +19187,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/020-内部設計/023-検索機能/Main/クラス仕様書_MainService.xlsx
+++ b/020-内部設計/023-検索機能/Main/クラス仕様書_MainService.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CAAFC6-EFF4-4E67-8864-FAFD4E54CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB880A-5130-4312-8500-EE1D756DB703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
-    <sheet name="メソッド仕様（execute）" sheetId="7" r:id="rId2"/>
+    <sheet name="メソッド仕様_createMainValue" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$27</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -221,13 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品購入</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンコウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柴田 隼輔</t>
     <rPh sb="0" eb="5">
       <t>シバ</t>
@@ -257,9 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>execute</t>
-  </si>
-  <si>
     <t>public static</t>
   </si>
   <si>
@@ -276,10 +266,6 @@
   </si>
   <si>
     <t>データベースアクセス・SQL実行でエラーが発生した場合</t>
-  </si>
-  <si>
-    <t>execute</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>例外処理</t>
@@ -430,26 +416,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>項番3で使用。</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>項番2で使用。</t>
-    <rPh sb="0" eb="2">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>項番1で使用。</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
@@ -498,39 +464,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-1.　クラス参照エラーを呼び出し元に投げる。</t>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>SQLエラー</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-1.　SQLエラーを呼び出し元に投げる。</t>
-    <rPh sb="12" eb="13">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -545,28 +479,6 @@
   </si>
   <si>
     <t>mainValue</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>カテゴリ情報リストと商品色情報リストを格納した変数。</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヘンスウ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -604,84 +516,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メイン画面選択肢情報</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>4.　商品色情報リストとカテゴリ情報リストをもとにメイン画面選択肢情報を作成。</t>
-    <rPh sb="28" eb="33">
-      <t>ガメンセンタクシ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>5.　メイン画面選択肢情報を返却。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メイン画面選択肢情報取得</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メイン画面選択肢情報情報を取得するクラス。</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンストラクタ（メイン画面選択肢情報）</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -793,6 +627,176 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カテゴリ情報リストと商品色情報リストが格納。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択肢情報</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5.　選択肢情報を返却。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-1.　SQLエラーを呼び出し元にスロー。</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2-1.　クラス参照エラーを呼び出し元にスロー。</t>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択肢情報取得</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ（選択肢情報）</t>
+    <rPh sb="8" eb="11">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4.　商品色情報リストとカテゴリ情報リストをもとに選択肢情報を作成。</t>
+    <rPh sb="25" eb="28">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択肢情報を取得するクラス。</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①.項番3で使用。</t>
+    <rPh sb="2" eb="4">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>②.項番3で使用。</t>
+    <rPh sb="2" eb="4">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>①.項番2で使用。</t>
+    <rPh sb="2" eb="4">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>②.項番2で使用。</t>
+    <rPh sb="2" eb="4">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>createMainValue</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>createMainValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1914,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY26"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1946,7 +1950,7 @@
       <c r="P1" s="91"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="90" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="S1" s="90"/>
       <c r="T1" s="90"/>
@@ -1963,7 +1967,7 @@
       <c r="AC1" s="91"/>
       <c r="AD1" s="91"/>
       <c r="AE1" s="90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="90"/>
       <c r="AG1" s="90"/>
@@ -1982,7 +1986,7 @@
       <c r="AR1" s="91"/>
       <c r="AS1" s="91"/>
       <c r="AT1" s="90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AU1" s="90"/>
       <c r="AV1" s="90"/>
@@ -2484,7 +2488,7 @@
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
       <c r="G4" s="87" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H4" s="88"/>
       <c r="I4" s="88"/>
@@ -2551,7 +2555,7 @@
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
       <c r="G5" s="87" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H5" s="88"/>
       <c r="I5" s="88"/>
@@ -2618,7 +2622,7 @@
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
       <c r="G6" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
@@ -2685,7 +2689,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
       <c r="G7" s="87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="88"/>
       <c r="I7" s="88"/>
@@ -2752,7 +2756,7 @@
       <c r="E8" s="86"/>
       <c r="F8" s="86"/>
       <c r="G8" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="88"/>
       <c r="I8" s="88"/>
@@ -2976,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
@@ -2986,7 +2990,7 @@
       <c r="I13" s="97"/>
       <c r="J13" s="98"/>
       <c r="K13" s="97" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L13" s="97"/>
       <c r="M13" s="97"/>
@@ -2996,7 +3000,7 @@
       <c r="Q13" s="97"/>
       <c r="R13" s="98"/>
       <c r="S13" s="97" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T13" s="97"/>
       <c r="U13" s="97"/>
@@ -3006,7 +3010,7 @@
       <c r="Y13" s="97"/>
       <c r="Z13" s="98"/>
       <c r="AA13" s="102" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="102"/>
       <c r="AC13" s="102"/>
@@ -3016,7 +3020,7 @@
       <c r="AG13" s="102"/>
       <c r="AH13" s="102"/>
       <c r="AI13" s="102" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AJ13" s="102"/>
       <c r="AK13" s="102"/>
@@ -3036,7 +3040,7 @@
       <c r="AY13" s="102"/>
       <c r="AZ13" s="102"/>
       <c r="BA13" s="100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BB13" s="77"/>
       <c r="BC13" s="77"/>
@@ -3056,7 +3060,7 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3141,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
@@ -3151,7 +3155,7 @@
       <c r="I17" s="97"/>
       <c r="J17" s="98"/>
       <c r="K17" s="97" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L17" s="97"/>
       <c r="M17" s="97"/>
@@ -3161,7 +3165,7 @@
       <c r="Q17" s="97"/>
       <c r="R17" s="98"/>
       <c r="S17" s="97" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T17" s="97"/>
       <c r="U17" s="97"/>
@@ -3171,7 +3175,7 @@
       <c r="Y17" s="97"/>
       <c r="Z17" s="98"/>
       <c r="AA17" s="106" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="106"/>
       <c r="AC17" s="106"/>
@@ -3181,7 +3185,7 @@
       <c r="AE17" s="106"/>
       <c r="AF17" s="106"/>
       <c r="AG17" s="104" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH17" s="104"/>
       <c r="AI17" s="104"/>
@@ -3203,7 +3207,7 @@
       <c r="AY17" s="104"/>
       <c r="AZ17" s="100"/>
       <c r="BA17" s="77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BB17" s="77"/>
       <c r="BC17" s="77"/>
@@ -3300,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" s="97"/>
       <c r="E21" s="97"/>
@@ -3310,7 +3314,7 @@
       <c r="I21" s="97"/>
       <c r="J21" s="98"/>
       <c r="K21" s="97" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="L21" s="97"/>
       <c r="M21" s="97"/>
@@ -3320,7 +3324,7 @@
       <c r="Q21" s="97"/>
       <c r="R21" s="98"/>
       <c r="S21" s="97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T21" s="97"/>
       <c r="U21" s="97"/>
@@ -3340,7 +3344,7 @@
       <c r="AE21" s="106"/>
       <c r="AF21" s="106"/>
       <c r="AG21" s="104" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AH21" s="104"/>
       <c r="AI21" s="104"/>
@@ -3362,7 +3366,7 @@
       <c r="AY21" s="104"/>
       <c r="AZ21" s="100"/>
       <c r="BA21" s="77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BB21" s="77"/>
       <c r="BC21" s="77"/>
@@ -3914,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
@@ -3924,7 +3928,7 @@
       <c r="I25" s="80"/>
       <c r="J25" s="81"/>
       <c r="K25" s="79" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L25" s="80"/>
       <c r="M25" s="80"/>
@@ -3934,7 +3938,7 @@
       <c r="Q25" s="80"/>
       <c r="R25" s="81"/>
       <c r="S25" s="82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T25" s="82"/>
       <c r="U25" s="82"/>
@@ -3944,7 +3948,7 @@
       <c r="Y25" s="82"/>
       <c r="Z25" s="82"/>
       <c r="AA25" s="83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB25" s="84"/>
       <c r="AC25" s="84"/>
@@ -3972,7 +3976,7 @@
       <c r="AY25" s="84"/>
       <c r="AZ25" s="85"/>
       <c r="BA25" s="77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BB25" s="77"/>
       <c r="BC25" s="77"/>
@@ -4187,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
@@ -4197,7 +4201,7 @@
       <c r="I26" s="80"/>
       <c r="J26" s="81"/>
       <c r="K26" s="79" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L26" s="80"/>
       <c r="M26" s="80"/>
@@ -4207,7 +4211,7 @@
       <c r="Q26" s="80"/>
       <c r="R26" s="81"/>
       <c r="S26" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T26" s="82"/>
       <c r="U26" s="82"/>
@@ -4217,7 +4221,7 @@
       <c r="Y26" s="82"/>
       <c r="Z26" s="82"/>
       <c r="AA26" s="83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84"/>
@@ -4245,7 +4249,7 @@
       <c r="AY26" s="84"/>
       <c r="AZ26" s="85"/>
       <c r="BA26" s="77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BB26" s="77"/>
       <c r="BC26" s="77"/>
@@ -4562,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:JB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4597,9 +4601,8 @@
       <c r="R1" s="91"/>
       <c r="S1" s="91"/>
       <c r="T1" s="91"/>
-      <c r="U1" s="90" t="str">
-        <f>クラス仕様!R1</f>
-        <v>商品購入</v>
+      <c r="U1" s="90" t="s">
+        <v>99</v>
       </c>
       <c r="V1" s="90"/>
       <c r="W1" s="90"/>
@@ -4636,7 +4639,7 @@
       <c r="AU1" s="91"/>
       <c r="AV1" s="91"/>
       <c r="AW1" s="90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AX1" s="90"/>
       <c r="AY1" s="90"/>
@@ -5141,7 +5144,7 @@
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
       <c r="G4" s="111" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H4" s="111"/>
       <c r="I4" s="111"/>
@@ -5408,7 +5411,7 @@
       <c r="E5" s="112"/>
       <c r="F5" s="112"/>
       <c r="G5" s="113" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -6474,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82"/>
@@ -6484,7 +6487,7 @@
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
       <c r="K9" s="82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L9" s="82"/>
       <c r="M9" s="82"/>
@@ -6497,7 +6500,7 @@
       <c r="T9" s="82"/>
       <c r="U9" s="82"/>
       <c r="V9" s="82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W9" s="82"/>
       <c r="X9" s="82"/>
@@ -6507,7 +6510,7 @@
       <c r="AB9" s="82"/>
       <c r="AC9" s="82"/>
       <c r="AD9" s="110" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="110"/>
       <c r="AF9" s="110"/>
@@ -7562,7 +7565,7 @@
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
       <c r="K13" s="82" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L13" s="82"/>
       <c r="M13" s="82"/>
@@ -7575,7 +7578,7 @@
       <c r="T13" s="82"/>
       <c r="U13" s="82"/>
       <c r="V13" s="82" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W13" s="82"/>
       <c r="X13" s="82"/>
@@ -7585,7 +7588,7 @@
       <c r="AB13" s="82"/>
       <c r="AC13" s="82"/>
       <c r="AD13" s="110" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE13" s="110"/>
       <c r="AF13" s="110"/>
@@ -8438,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
@@ -8448,7 +8451,7 @@
       <c r="I17" s="77"/>
       <c r="J17" s="78"/>
       <c r="K17" s="97" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L17" s="97"/>
       <c r="M17" s="97"/>
@@ -8461,7 +8464,7 @@
       <c r="T17" s="97"/>
       <c r="U17" s="98"/>
       <c r="V17" s="97" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="W17" s="97"/>
       <c r="X17" s="97"/>
@@ -8471,7 +8474,7 @@
       <c r="AB17" s="97"/>
       <c r="AC17" s="98"/>
       <c r="AD17" s="117" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AE17" s="118"/>
       <c r="AF17" s="117" t="s">
@@ -8479,7 +8482,7 @@
       </c>
       <c r="AG17" s="118"/>
       <c r="AH17" s="119" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AI17" s="104"/>
       <c r="AJ17" s="104"/>
@@ -8501,7 +8504,7 @@
       <c r="AZ17" s="104"/>
       <c r="BA17" s="104"/>
       <c r="BB17" s="114" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BC17" s="114"/>
       <c r="BD17" s="114"/>
@@ -8718,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
@@ -8728,7 +8731,7 @@
       <c r="I18" s="77"/>
       <c r="J18" s="78"/>
       <c r="K18" s="97" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L18" s="97"/>
       <c r="M18" s="97"/>
@@ -8741,7 +8744,7 @@
       <c r="T18" s="97"/>
       <c r="U18" s="98"/>
       <c r="V18" s="97" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W18" s="97"/>
       <c r="X18" s="97"/>
@@ -8755,11 +8758,11 @@
       </c>
       <c r="AE18" s="118"/>
       <c r="AF18" s="117" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG18" s="118"/>
       <c r="AH18" s="119" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AI18" s="104"/>
       <c r="AJ18" s="104"/>
@@ -8781,7 +8784,7 @@
       <c r="AZ18" s="104"/>
       <c r="BA18" s="104"/>
       <c r="BB18" s="114" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="BC18" s="114"/>
       <c r="BD18" s="114"/>
@@ -8998,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
@@ -9008,7 +9011,7 @@
       <c r="I19" s="77"/>
       <c r="J19" s="78"/>
       <c r="K19" s="97" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L19" s="97"/>
       <c r="M19" s="97"/>
@@ -9021,7 +9024,7 @@
       <c r="T19" s="97"/>
       <c r="U19" s="98"/>
       <c r="V19" s="97" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W19" s="97"/>
       <c r="X19" s="97"/>
@@ -9031,7 +9034,7 @@
       <c r="AB19" s="97"/>
       <c r="AC19" s="98"/>
       <c r="AD19" s="117" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AE19" s="118"/>
       <c r="AF19" s="117" t="s">
@@ -9039,7 +9042,7 @@
       </c>
       <c r="AG19" s="118"/>
       <c r="AH19" s="119" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AI19" s="104"/>
       <c r="AJ19" s="104"/>
@@ -9061,7 +9064,7 @@
       <c r="AZ19" s="104"/>
       <c r="BA19" s="104"/>
       <c r="BB19" s="114" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="BC19" s="114"/>
       <c r="BD19" s="114"/>
@@ -9278,7 +9281,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
@@ -9288,7 +9291,7 @@
       <c r="I20" s="77"/>
       <c r="J20" s="78"/>
       <c r="K20" s="97" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L20" s="97"/>
       <c r="M20" s="97"/>
@@ -9301,7 +9304,7 @@
       <c r="T20" s="97"/>
       <c r="U20" s="98"/>
       <c r="V20" s="97" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W20" s="97"/>
       <c r="X20" s="97"/>
@@ -9315,11 +9318,11 @@
       </c>
       <c r="AE20" s="118"/>
       <c r="AF20" s="117" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG20" s="118"/>
       <c r="AH20" s="119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AI20" s="104"/>
       <c r="AJ20" s="104"/>
@@ -9341,7 +9344,7 @@
       <c r="AZ20" s="104"/>
       <c r="BA20" s="104"/>
       <c r="BB20" s="114" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="BC20" s="114"/>
       <c r="BD20" s="114"/>
@@ -9558,7 +9561,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
@@ -9568,7 +9571,7 @@
       <c r="I21" s="77"/>
       <c r="J21" s="78"/>
       <c r="K21" s="97" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L21" s="97"/>
       <c r="M21" s="97"/>
@@ -9581,7 +9584,7 @@
       <c r="T21" s="97"/>
       <c r="U21" s="98"/>
       <c r="V21" s="97" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W21" s="97"/>
       <c r="X21" s="97"/>
@@ -9591,7 +9594,7 @@
       <c r="AB21" s="97"/>
       <c r="AC21" s="98"/>
       <c r="AD21" s="117" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AE21" s="118"/>
       <c r="AF21" s="117" t="s">
@@ -9599,7 +9602,7 @@
       </c>
       <c r="AG21" s="118"/>
       <c r="AH21" s="119" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AI21" s="104"/>
       <c r="AJ21" s="104"/>
@@ -9621,7 +9624,7 @@
       <c r="AZ21" s="104"/>
       <c r="BA21" s="104"/>
       <c r="BB21" s="114" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="BC21" s="114"/>
       <c r="BD21" s="114"/>
@@ -9838,7 +9841,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="77"/>
       <c r="E22" s="77"/>
@@ -9848,7 +9851,7 @@
       <c r="I22" s="77"/>
       <c r="J22" s="78"/>
       <c r="K22" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22" s="97"/>
       <c r="M22" s="97"/>
@@ -9861,7 +9864,7 @@
       <c r="T22" s="97"/>
       <c r="U22" s="98"/>
       <c r="V22" s="97" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W22" s="97"/>
       <c r="X22" s="97"/>
@@ -9879,7 +9882,7 @@
       </c>
       <c r="AG22" s="118"/>
       <c r="AH22" s="119" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AI22" s="104"/>
       <c r="AJ22" s="104"/>
@@ -9901,7 +9904,7 @@
       <c r="AZ22" s="104"/>
       <c r="BA22" s="104"/>
       <c r="BB22" s="114" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BC22" s="114"/>
       <c r="BD22" s="114"/>
@@ -11592,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29" s="80"/>
       <c r="E29" s="80"/>
@@ -11602,7 +11605,7 @@
       <c r="I29" s="80"/>
       <c r="J29" s="81"/>
       <c r="K29" s="79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L29" s="80"/>
       <c r="M29" s="80"/>
@@ -11615,7 +11618,7 @@
       <c r="T29" s="80"/>
       <c r="U29" s="81"/>
       <c r="V29" s="79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W29" s="80"/>
       <c r="X29" s="80"/>
@@ -11625,7 +11628,7 @@
       <c r="AB29" s="80"/>
       <c r="AC29" s="81"/>
       <c r="AD29" s="83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AE29" s="84"/>
       <c r="AF29" s="84"/>
@@ -11866,7 +11869,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
@@ -11876,7 +11879,7 @@
       <c r="I30" s="80"/>
       <c r="J30" s="81"/>
       <c r="K30" s="79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L30" s="80"/>
       <c r="M30" s="80"/>
@@ -11889,7 +11892,7 @@
       <c r="T30" s="80"/>
       <c r="U30" s="81"/>
       <c r="V30" s="79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W30" s="80"/>
       <c r="X30" s="80"/>
@@ -11899,7 +11902,7 @@
       <c r="AB30" s="80"/>
       <c r="AC30" s="81"/>
       <c r="AD30" s="83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE30" s="84"/>
       <c r="AF30" s="84"/>
@@ -12930,7 +12933,7 @@
     <row r="34" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -13458,7 +13461,7 @@
     <row r="36" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="34" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -13985,7 +13988,7 @@
     <row r="38" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
@@ -14513,7 +14516,7 @@
     <row r="40" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="7"/>
@@ -15041,7 +15044,7 @@
     <row r="42" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="7"/>
@@ -15832,7 +15835,7 @@
     <row r="45" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="120" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C45" s="121"/>
       <c r="D45" s="121"/>
@@ -16097,7 +16100,7 @@
     <row r="46" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="34" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
@@ -16349,7 +16352,7 @@
       <c r="A47" s="21"/>
       <c r="B47" s="34"/>
       <c r="C47" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
@@ -16849,7 +16852,7 @@
     <row r="49" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="34" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
@@ -17101,7 +17104,7 @@
       <c r="A50" s="21"/>
       <c r="B50" s="34"/>
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
